--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints4.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints4.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.027804166502799e-08</v>
+        <v>5.381186774753222e-09</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.042114992554969e-08</v>
+        <v>5.581752959008947e-09</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.055638569035515e-08</v>
+        <v>5.766334808012669e-09</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.068477219765283e-08</v>
+        <v>5.936345059859967e-09</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.080733268565121e-08</v>
+        <v>6.093196452646421e-09</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.092509039255875e-08</v>
+        <v>6.238301724467612e-09</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.103906855658393e-08</v>
+        <v>6.373073613419123e-09</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.115029041593521e-08</v>
+        <v>6.49892485759653e-09</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.125977920882106e-08</v>
+        <v>6.617268195095414e-09</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.136855817344996e-08</v>
+        <v>6.729516364011356e-09</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.147765054803032e-08</v>
+        <v>6.837082102439887e-09</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.158807957077073e-08</v>
+        <v>6.941378148476687e-09</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.170086847987958e-08</v>
+        <v>7.043817240217285e-09</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.181704051356536e-08</v>
+        <v>7.145812115757263e-09</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.193761891003654e-08</v>
+        <v>7.248775513192196e-09</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.206362690750158e-08</v>
+        <v>7.354120170617671e-09</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.219608774416896e-08</v>
+        <v>7.463258826129264e-09</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.233602465824715e-08</v>
+        <v>7.577604217822557e-09</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.248446088794461e-08</v>
+        <v>7.698569083793128e-09</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.264241967146982e-08</v>
+        <v>7.827566162136558e-09</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.281092424703125e-08</v>
+        <v>7.966008190948432e-09</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.299099785283736e-08</v>
+        <v>8.115307908324323e-09</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.318366372709664e-08</v>
+        <v>8.276878052359816e-09</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.338994510801754e-08</v>
+        <v>8.452131361150487e-09</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>1.361086523380853e-08</v>
+        <v>8.642480572791922e-09</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>1.38474473426781e-08</v>
+        <v>8.849338425379697e-09</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.410071467283471e-08</v>
+        <v>9.074117657009394e-09</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.437169046248683e-08</v>
+        <v>9.318231005776591e-09</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>1.466139794984277e-08</v>
+        <v>9.583091209776735e-09</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>1.497086037311131e-08</v>
+        <v>9.870111007105669e-09</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>1.530110097050076e-08</v>
+        <v>1.018070313585884e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.56531429802196e-08</v>
+        <v>1.051628033413184e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.60280096404763e-08</v>
+        <v>1.087825534002023e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.642672418947933e-08</v>
+        <v>1.126804089161961e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.685030986543716e-08</v>
+        <v>1.168704972702555e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.729978990655827e-08</v>
+        <v>1.213669458433364e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.777618755105111e-08</v>
+        <v>1.261838820163945e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>1.828052603712417e-08</v>
+        <v>1.313354331703856e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>1.88138286029859e-08</v>
+        <v>1.368357266862655e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>1.937711848684479e-08</v>
+        <v>1.426988899449901e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>1.997141892690929e-08</v>
+        <v>1.489390503275151e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>2.059775316138789e-08</v>
+        <v>1.555703352147964e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>2.125714442848906e-08</v>
+        <v>1.626068719877897e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>2.195061596642124e-08</v>
+        <v>1.700627880274508e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>2.267919101339294e-08</v>
+        <v>1.779522107147357e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>2.344389280761261e-08</v>
+        <v>1.862892674305999e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>2.424574458728872e-08</v>
+        <v>1.950880855559995e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>2.508578487061015e-08</v>
+        <v>2.043629137560157e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>2.596877549685414e-08</v>
+        <v>2.14157554382038e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>2.690803680297606e-08</v>
+        <v>2.245837424588936e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.79180871184779e-08</v>
+        <v>2.357627220209956e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>2.901344477286163e-08</v>
+        <v>2.478157371027575e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>3.020862809562925e-08</v>
+        <v>2.608640317385924e-08</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>3.151815541628276e-08</v>
+        <v>2.75028849962914e-08</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>3.295654506432413e-08</v>
+        <v>2.904314358101353e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>3.453831536925534e-08</v>
+        <v>3.071930333146697e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>3.627798466057841e-08</v>
+        <v>3.254348865109308e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>3.81900712677953e-08</v>
+        <v>3.452782394333315e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>4.028909352040802e-08</v>
+        <v>3.668443361162855e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>4.258956974791852e-08</v>
+        <v>3.90254420594206e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>4.510601827982884e-08</v>
+        <v>4.156297369015063e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>4.785295744564094e-08</v>
+        <v>4.430915290725997e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>5.084490557485681e-08</v>
+        <v>4.727610411418997e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>5.409638099697844e-08</v>
+        <v>5.047595171438195e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>5.762190204150782e-08</v>
+        <v>5.392082011127725e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>6.1435987037945e-08</v>
+        <v>5.762283370831533e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>6.556294198222061e-08</v>
+        <v>6.160436692625447e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>7.013195771361381e-08</v>
+        <v>6.599763359123928e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>7.533589453826155e-08</v>
+        <v>7.100152462171489e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>8.136850793443141e-08</v>
+        <v>7.68158683944991e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>8.842355338039108e-08</v>
+        <v>8.364049328640963e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>9.669478635440815e-08</v>
+        <v>9.167522767426425e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>1.063759623347503e-07</v>
+        <v>1.011198999348807e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.17660836799685e-07</v>
+        <v>1.121743384450767e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>1.307431652274801e-07</v>
+        <v>1.2503837158167e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>1.458167030964031e-07</v>
+        <v>1.399118277214784e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>1.630752058847216e-07</v>
+        <v>1.569945352413196e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>1.827124290707033e-07</v>
+        <v>1.764863225180114e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>2.049221281326158e-07</v>
+        <v>1.985870179283715e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>2.298980585487267e-07</v>
+        <v>2.234964498492175e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>2.577880675039122e-07</v>
+        <v>2.513679471222697e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>2.882207282250754e-07</v>
+        <v>2.818288770287015e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>3.20496316330056e-07</v>
+        <v>3.141740811758392e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>3.539099298605411e-07</v>
+        <v>3.476931569141168e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>3.877566668582018e-07</v>
+        <v>3.81675701593952e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>4.213316253647584e-07</v>
+        <v>4.154113125658122e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>4.539299034218818e-07</v>
+        <v>4.481895871801149e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>4.848465990712591e-07</v>
+        <v>4.793001227872942e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>5.133768103545777e-07</v>
+        <v>5.080325167377842e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>5.388156353135249e-07</v>
+        <v>5.336763663820187e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>5.604581719897881e-07</v>
+        <v>5.555212690704326e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>5.775995184250541e-07</v>
+        <v>5.728568221534589e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>5.895347726610106e-07</v>
+        <v>5.849726229815324e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>5.955590327393446e-07</v>
+        <v>5.91158268905087e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>5.950334338864234e-07</v>
+        <v>5.907697815124463e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>5.881082893959394e-07</v>
+        <v>5.839569859426989e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>5.754534561656366e-07</v>
+        <v>5.713922960569828e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>5.577479294547442e-07</v>
+        <v>5.537573176391404e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>5.356707045224926e-07</v>
+        <v>5.317336564730154e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>5.099007766281114e-07</v>
+        <v>5.060029183424513e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>4.811171410308304e-07</v>
+        <v>4.772467090312911e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>4.499987929898795e-07</v>
+        <v>4.461466343233781e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>4.172247277645049e-07</v>
+        <v>4.133843000025721e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>3.834739406139043e-07</v>
+        <v>3.796413118526841e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>3.494254267973232e-07</v>
+        <v>3.455992756575733e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>3.157581815739913e-07</v>
+        <v>3.119397972010826e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>2.831512002031387e-07</v>
+        <v>2.793444822670556e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>2.522834779439952e-07</v>
+        <v>2.484949366393357e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>2.238340100557906e-07</v>
+        <v>2.200727661017662e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>1.984326110589778e-07</v>
+        <v>1.947094696726057e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>1.760183242951099e-07</v>
+        <v>1.723327686230863e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.560206065843823e-07</v>
+        <v>1.523512026707339e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.378570254456908e-07</v>
+        <v>1.341611983674736e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.210229537486684e-07</v>
+        <v>1.172420436769359e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.054628526746423e-07</v>
+        <v>1.015512981871962e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>9.128195901120005e-08</v>
+        <v>8.721774484791524e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>7.858571371758216e-08</v>
+        <v>7.437038404818765e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>6.747845786759296e-08</v>
+        <v>6.313699149020883e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>5.797978065894066e-08</v>
+        <v>5.355097440023073e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>4.996580657665037e-08</v>
+        <v>4.548599668186516e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>4.329878788872209e-08</v>
+        <v>3.880027597323792e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>3.784097686315815e-08</v>
+        <v>3.335202991247717e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>3.345462576795334e-08</v>
+        <v>2.899947613770347e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>3.000198687111054e-08</v>
+        <v>2.560083228704556e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.734531244062976e-08</v>
+        <v>2.301431599862924e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>2.534685474451098e-08</v>
+        <v>2.10981449105803e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>2.386886605075418e-08</v>
+        <v>1.971053666102454e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>2.277359862735936e-08</v>
+        <v>1.870970888808775e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>2.192330474232649e-08</v>
+        <v>1.795387922989574e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>2.118023666365557e-08</v>
+        <v>1.73012653245743e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>2.040664665934658e-08</v>
+        <v>1.661008481024923e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.946483586596038e-08</v>
+        <v>1.573860774087369e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>1.828472146895928e-08</v>
+        <v>1.461762832671275e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.699802567805665e-08</v>
+        <v>1.339439440643906e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.577395422374372e-08</v>
+        <v>1.225635818979069e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.47817128365117e-08</v>
+        <v>1.139097188650571e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.418520723221391e-08</v>
+        <v>1.097940622520717e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.403727211069685e-08</v>
+        <v>1.107119258309354e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.428537378601827e-08</v>
+        <v>1.159098163972901e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.48728200769754e-08</v>
+        <v>1.245849550160182e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.574291880236641e-08</v>
+        <v>1.359345627520159e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.683897778098863e-08</v>
+        <v>1.491558606701669e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>1.810430483163967e-08</v>
+        <v>1.634460698353588e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.948220777311708e-08</v>
+        <v>1.780024113124788e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>2.091599442421844e-08</v>
+        <v>1.920221061664142e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>2.234898238741483e-08</v>
+        <v>2.047025301277155e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>2.374594486119648e-08</v>
+        <v>2.155802407259267e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>2.513860472191909e-08</v>
+        <v>2.252501726226087e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>2.657170691538725e-08</v>
+        <v>2.345131204767965e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>2.808999638740557e-08</v>
+        <v>2.441698789475251e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>2.973821808377866e-08</v>
+        <v>2.550212426938293e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>3.15611169503111e-08</v>
+        <v>2.678680063747441e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>3.360343793280752e-08</v>
+        <v>2.835109646493044e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>3.59099259770725e-08</v>
+        <v>3.027509121765452e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>3.852532602891065e-08</v>
+        <v>3.263886436155013e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>4.150299870415215e-08</v>
+        <v>3.552554824122453e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>4.495358159295695e-08</v>
+        <v>3.903857073890743e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>4.901107798259432e-08</v>
+        <v>4.328963914387311e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>5.380956008569369e-08</v>
+        <v>4.839048516842549e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>5.948310011488151e-08</v>
+        <v>5.445284052486526e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>6.616577028279272e-08</v>
+        <v>6.158843692550219e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>7.399164280205419e-08</v>
+        <v>6.990900608263744e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>8.309478988529538e-08</v>
+        <v>7.952627970857496e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>9.360928374514573e-08</v>
+        <v>9.05519895156186e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.056691965942348e-07</v>
+        <v>1.030978672160724e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.194086006451918e-07</v>
+        <v>1.172756445222401e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.349615681106464e-07</v>
+        <v>1.331970531464256e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.524621712032279e-07</v>
+        <v>1.50973824800933e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>1.720443678033307e-07</v>
+        <v>1.707175835620719e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>1.93683922182436e-07</v>
+        <v>1.923910250231241e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>2.168844582607085e-07</v>
+        <v>2.155123568692861e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>2.410619040115222e-07</v>
+        <v>2.395172270387904e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>2.656321874082517e-07</v>
+        <v>2.638412834698696e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>2.900112364242713e-07</v>
+        <v>2.879201741007564e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>3.136149790329556e-07</v>
+        <v>3.111895468696834e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>3.358593432076788e-07</v>
+        <v>3.330850497148832e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>3.561602569218062e-07</v>
+        <v>3.530423305745795e-07</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>3.73933648148732e-07</v>
+        <v>3.704970373870242e-07</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>3.886019332296829e-07</v>
+        <v>3.848910994360717e-07</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>3.998700121277196e-07</v>
+        <v>3.95939916514898e-07</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>4.078282672249798e-07</v>
+        <v>4.037320713743143e-07</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>4.125947951373598e-07</v>
+        <v>4.083829767299004e-07</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>4.142876924807567e-07</v>
+        <v>4.100080452972366e-07</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>4.130250558710671e-07</v>
+        <v>4.087226897919028e-07</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>4.089249819241875e-07</v>
+        <v>4.046423229294789e-07</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>4.021055672560149e-07</v>
+        <v>3.978823574255449e-07</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>3.926849084824456e-07</v>
+        <v>3.885582059956809e-07</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>3.807812082292523e-07</v>
+        <v>3.767853852604648e-07</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.665800358167268e-07</v>
+        <v>3.627454409365591e-07</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.504497106376392e-07</v>
+        <v>3.467990402216661e-07</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>3.327892431259511e-07</v>
+        <v>3.293369319691521e-07</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>3.13997643715624e-07</v>
+        <v>3.107498650323832e-07</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.944739228406201e-07</v>
+        <v>2.914285882647262e-07</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>2.746170909349007e-07</v>
+        <v>2.717638505195472e-07</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>2.548261584324277e-07</v>
+        <v>2.521464006502125e-07</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>2.355001357671629e-07</v>
+        <v>2.329669875100886e-07</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>2.170380333730765e-07</v>
+        <v>2.146163599525505e-07</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>1.997872333387033e-07</v>
+        <v>1.974352959462746e-07</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>1.837994264672248e-07</v>
+        <v>1.814783749578975e-07</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>1.69021217874126e-07</v>
+        <v>1.666984644053939e-07</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>1.553990865776757e-07</v>
+        <v>1.530483096577089e-07</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.428795115961423e-07</v>
+        <v>1.404806560837876e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.314089719477946e-07</v>
+        <v>1.289482490525751e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.209339466509011e-07</v>
+        <v>1.184038339330165e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.114009147237306e-07</v>
+        <v>1.088001560940568e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.027563551845514e-07</v>
+        <v>1.000899609046411e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>9.494692026178069e-08</v>
+        <v>9.222606191061541e-08</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>8.792451532286548e-08</v>
+        <v>8.516334033539684e-08</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>8.164711891607886e-08</v>
+        <v>7.88590678549885e-08</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>7.607304789076501e-08</v>
+        <v>7.327064930340321e-08</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>7.116061909626796e-08</v>
+        <v>6.83554895146536e-08</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>6.686814938193185e-08</v>
+        <v>6.407099332275241e-08</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>6.315395559710081e-08</v>
+        <v>6.037456556171229e-08</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>5.997635459112035e-08</v>
+        <v>5.722361106554737e-08</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>5.729366321333149e-08</v>
+        <v>5.457553466826732e-08</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>5.506419831308008e-08</v>
+        <v>5.238774120388649e-08</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>5.324627673971017e-08</v>
+        <v>5.06176355064176e-08</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>5.179821534256589e-08</v>
+        <v>4.922262240987332e-08</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>5.067833097099135e-08</v>
+        <v>4.816010674826635e-08</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>4.984494047433067e-08</v>
+        <v>4.738749335560941e-08</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>4.925636070192795e-08</v>
+        <v>4.686218706591521e-08</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>4.887090850312732e-08</v>
+        <v>4.654159271319642e-08</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>4.864690072727285e-08</v>
+        <v>4.638311513146575e-08</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>4.85426542237087e-08</v>
+        <v>4.634415915473593e-08</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>4.851648584177896e-08</v>
+        <v>4.638212961701963e-08</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>4.852671243082772e-08</v>
+        <v>4.645443135232954e-08</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>4.853165084019915e-08</v>
+        <v>4.651846919467841e-08</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.848961791923729e-08</v>
+        <v>4.653164797807889e-08</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.83589305172863e-08</v>
+        <v>4.645137253654371e-08</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.809790548369027e-08</v>
+        <v>4.623504770408555e-08</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.766485966779334e-08</v>
+        <v>4.584007831471713e-08</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.701810991893958e-08</v>
+        <v>4.522386920245115e-08</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.611597308647311e-08</v>
+        <v>4.434382520130029e-08</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.491676601973872e-08</v>
+        <v>4.315735114527793e-08</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.337943200090227e-08</v>
+        <v>4.162249655298629e-08</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.15041576088819e-08</v>
+        <v>3.973975590586006e-08</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.935725318798829e-08</v>
+        <v>3.757767403497701e-08</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.701098186732798e-08</v>
+        <v>3.521092199674872e-08</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.453760677600756e-08</v>
+        <v>3.271417084758679e-08</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.200939104313363e-08</v>
+        <v>3.016209164390278e-08</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.949859779781271e-08</v>
+        <v>2.762935544210827e-08</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.707749016915141e-08</v>
+        <v>2.519063329861485e-08</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.481833128625627e-08</v>
+        <v>2.292059626983407e-08</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.27933842782339e-08</v>
+        <v>2.089391541217753e-08</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.107491227419085e-08</v>
+        <v>1.918526178205678e-08</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.97351784032337e-08</v>
+        <v>1.786930643588344e-08</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.8846445794469e-08</v>
+        <v>1.702072043006905e-08</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.848097757700335e-08</v>
+        <v>1.67141748210252e-08</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.871030208765874e-08</v>
+        <v>1.702357769270841e-08</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.955157027389748e-08</v>
+        <v>1.796637430123915e-08</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>2.093112964985412e-08</v>
+        <v>1.946572404820744e-08</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>2.276670178718124e-08</v>
+        <v>2.143582957742194e-08</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>2.497600825752949e-08</v>
+        <v>2.379089353268922e-08</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.747677063255006e-08</v>
+        <v>2.644511855781644e-08</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>3.018671048389416e-08</v>
+        <v>2.931270729661079e-08</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>3.3023549383213e-08</v>
+        <v>3.230786239287939e-08</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>3.590500890215774e-08</v>
+        <v>3.534478649042944e-08</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>3.874881061237963e-08</v>
+        <v>3.83376822330681e-08</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>4.147267608552983e-08</v>
+        <v>4.120075226460254e-08</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>4.399432689325955e-08</v>
+        <v>4.38481992288399e-08</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>4.623148460721999e-08</v>
+        <v>4.619422576958737e-08</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>4.810187079906236e-08</v>
+        <v>4.815303453065213e-08</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>4.952531789543538e-08</v>
+        <v>4.964103830366668e-08</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>5.047581003891142e-08</v>
+        <v>5.063134884695167e-08</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>5.098479125658968e-08</v>
+        <v>5.115724066756295e-08</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>5.108647879366201e-08</v>
+        <v>5.125489194047467e-08</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>5.081508989532016e-08</v>
+        <v>5.096048084066097e-08</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>5.020484180675589e-08</v>
+        <v>5.031018554309593e-08</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>4.928995177316103e-08</v>
+        <v>4.934018422275376e-08</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>4.810463703972735e-08</v>
+        <v>4.808665505460856e-08</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>4.668311485164663e-08</v>
+        <v>4.658577621363446e-08</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>4.505960245411067e-08</v>
+        <v>4.487372587480561e-08</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>4.326831709231122e-08</v>
+        <v>4.298668221309616e-08</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>4.134347601144011e-08</v>
+        <v>4.09608234034802e-08</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>3.931929645668911e-08</v>
+        <v>3.88323276209319e-08</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>3.722999567324999e-08</v>
+        <v>3.66373730404254e-08</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>3.510979090631455e-08</v>
+        <v>3.441213783693483e-08</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>3.29928994010766e-08</v>
+        <v>3.219280018543644e-08</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>3.091353840272183e-08</v>
+        <v>3.001553826089799e-08</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>2.890592515645003e-08</v>
+        <v>2.7916530238302e-08</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>2.700427690744703e-08</v>
+        <v>2.593195429261636e-08</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>2.524047905467375e-08</v>
+        <v>2.409551184426919e-08</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>2.362208698841249e-08</v>
+        <v>2.241506236116117e-08</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>2.214218492992242e-08</v>
+        <v>2.088309485786311e-08</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>2.079366544711902e-08</v>
+        <v>1.949189478565589e-08</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.956942110791775e-08</v>
+        <v>1.823374759582037e-08</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.846234448023408e-08</v>
+        <v>1.710093873963745e-08</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.746532813198347e-08</v>
+        <v>1.6085753668388e-08</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.657126463108138e-08</v>
+        <v>1.518047783335292e-08</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>1.57730465454433e-08</v>
+        <v>1.437739668581307e-08</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>1.506356644298467e-08</v>
+        <v>1.366879567704934e-08</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>1.443571689162097e-08</v>
+        <v>1.304696025834261e-08</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>1.388239045926768e-08</v>
+        <v>1.250417588097377e-08</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.339647971384025e-08</v>
+        <v>1.203272799622369e-08</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.297087722325414e-08</v>
+        <v>1.162490205537326e-08</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.259847555542484e-08</v>
+        <v>1.127298350970336e-08</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.227216727826779e-08</v>
+        <v>1.096925781049487e-08</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.198484495969848e-08</v>
+        <v>1.070601040902866e-08</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>1.172940116763237e-08</v>
+        <v>1.047552675658564e-08</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>1.149873686484224e-08</v>
+        <v>1.027010140979413e-08</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>1.128760336369177e-08</v>
+        <v>1.008403587731313e-08</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>1.10949155926901e-08</v>
+        <v>9.916147667329112e-09</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>1.09201573475166e-08</v>
+        <v>9.765871300688222e-09</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>1.076281242385063e-08</v>
+        <v>9.632641298236609e-09</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>1.062236461737156e-08</v>
+        <v>9.515892180820427e-09</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>1.049829772375874e-08</v>
+        <v>9.41505846928583e-09</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.039009553869153e-08</v>
+        <v>9.32957468447897e-09</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.029724185784931e-08</v>
+        <v>9.258875347245994e-09</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.021922047691142e-08</v>
+        <v>9.202394978433063e-09</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.015551519155724e-08</v>
+        <v>9.159568098886324e-09</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.010560979746612e-08</v>
+        <v>9.129829229451928e-09</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.006898809031743e-08</v>
+        <v>9.112612890976026e-09</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.004513386579052e-08</v>
+        <v>9.107353604304772e-09</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.003353091956477e-08</v>
+        <v>9.11348589028432e-09</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.003366304731953e-08</v>
+        <v>9.1304442697608e-09</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.004501404473417e-08</v>
+        <v>9.157663263580424e-09</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.006706770748801e-08</v>
+        <v>9.194577392589246e-09</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.009930783126048e-08</v>
+        <v>9.240621177633506e-09</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.01412182117309e-08</v>
+        <v>9.295229139559327e-09</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.019228264457865e-08</v>
+        <v>9.357835799212859e-09</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.025198492548308e-08</v>
+        <v>9.427875677440262e-09</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.031980885012356e-08</v>
+        <v>9.504783295087679e-09</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.039523821417945e-08</v>
+        <v>9.587993173001264e-09</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.047775681333012e-08</v>
+        <v>9.676939832027173e-09</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.056684844325492e-08</v>
+        <v>9.771057793011554e-09</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.066199689963321e-08</v>
+        <v>9.869781576800555e-09</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.076268597814436e-08</v>
+        <v>9.97254570424034e-09</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.086839947446773e-08</v>
+        <v>1.007878469617705e-08</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>1.097862118428269e-08</v>
+        <v>1.018793307345685e-08</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>1.109283490326858e-08</v>
+        <v>1.029942535692587e-08</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>1.121052442710479e-08</v>
+        <v>1.041269606743029e-08</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>1.133117355147066e-08</v>
+        <v>1.052717972581624e-08</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>1.145426607204556e-08</v>
+        <v>1.064231085292988e-08</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>1.157928578450886e-08</v>
+        <v>1.075752396961736e-08</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>1.170571648453991e-08</v>
+        <v>1.087225359672483e-08</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>1.183304196781808e-08</v>
+        <v>1.098593425509846e-08</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>1.196074603002272e-08</v>
+        <v>1.109800046558438e-08</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>1.208897585836701e-08</v>
+        <v>1.120858931717055e-08</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.222405888508557e-08</v>
+        <v>1.13243831184315e-08</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.237568554942317e-08</v>
+        <v>1.145562578743723e-08</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.255357995943171e-08</v>
+        <v>1.161259689937727e-08</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.276746622316304e-08</v>
+        <v>1.180557602944119e-08</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>1.302706844866907e-08</v>
+        <v>1.204484275281854e-08</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.334211074400168e-08</v>
+        <v>1.234067664469887e-08</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.372231721721274e-08</v>
+        <v>1.270335728027174e-08</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.417741197635413e-08</v>
+        <v>1.314316423472671e-08</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.471711912947775e-08</v>
+        <v>1.367037708325333e-08</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.535116278463547e-08</v>
+        <v>1.429527540104115e-08</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.608926704987917e-08</v>
+        <v>1.502813876327973e-08</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.694115603326075e-08</v>
+        <v>1.587924674515863e-08</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.791655384283206e-08</v>
+        <v>1.685887892186739e-08</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>1.902518458664387e-08</v>
+        <v>1.797731486859443e-08</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>2.027677237275148e-08</v>
+        <v>1.924483416053275e-08</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>2.168104130920192e-08</v>
+        <v>2.0671716372867e-08</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>2.324771550405089e-08</v>
+        <v>2.226824108079062e-08</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>2.498651906534902e-08</v>
+        <v>2.404468785949189e-08</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>2.690717610114819e-08</v>
+        <v>2.601133628416033e-08</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>2.901941071950027e-08</v>
+        <v>2.817846592998554e-08</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>3.133294702845716e-08</v>
+        <v>3.055635637215703e-08</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>3.385750913607071e-08</v>
+        <v>3.315528718586438e-08</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>3.660274568546569e-08</v>
+        <v>3.598545869288228e-08</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>3.95585949670179e-08</v>
+        <v>3.903637136377789e-08</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>4.266903896599491e-08</v>
+        <v>4.224926226714335e-08</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>4.587152258248805e-08</v>
+        <v>4.55585032118668e-08</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>4.910349071658871e-08</v>
+        <v>4.889846600683644e-08</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>5.230238826838824e-08</v>
+        <v>5.220352246094042e-08</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>5.540566013797798e-08</v>
+        <v>5.540804438306686e-08</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>5.835075122544929e-08</v>
+        <v>5.844640358210396e-08</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>6.107510643089353e-08</v>
+        <v>6.125297186693988e-08</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>6.351617065440207e-08</v>
+        <v>6.376212104646275e-08</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>6.561138879606623e-08</v>
+        <v>6.590822292956075e-08</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>6.729820575597738e-08</v>
+        <v>6.762564932512203e-08</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>6.851406643422688e-08</v>
+        <v>6.884877204203475e-08</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>6.919641573090608e-08</v>
+        <v>6.951196288918708e-08</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>6.928384224407042e-08</v>
+        <v>6.955080772520866e-08</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>6.877353937921553e-08</v>
+        <v>6.896310214727611e-08</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>6.77482034624413e-08</v>
+        <v>6.783740417578932e-08</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>6.629729592499979e-08</v>
+        <v>6.626945307516443e-08</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>6.451027819814303e-08</v>
+        <v>6.43549881098176e-08</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>6.247661171312312e-08</v>
+        <v>6.218974854416503e-08</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>6.028575790119208e-08</v>
+        <v>5.986947364262287e-08</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>5.802717819360196e-08</v>
+        <v>5.748990266960728e-08</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>5.579033402160485e-08</v>
+        <v>5.514677488953446e-08</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>5.366468681645278e-08</v>
+        <v>5.293582956682058e-08</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>5.172990043261622e-08</v>
+        <v>5.094219058908626e-08</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>4.999893040953837e-08</v>
+        <v>4.917870541119774e-08</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>4.845692740911103e-08</v>
+        <v>4.762809574789772e-08</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>4.708895004345977e-08</v>
+        <v>4.627298358080373e-08</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>4.588005692471015e-08</v>
+        <v>4.50959908915332e-08</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>4.481530666498777e-08</v>
+        <v>4.407973966170362e-08</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>4.387975787641903e-08</v>
+        <v>4.320685187293326e-08</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>4.305846917112772e-08</v>
+        <v>4.245994950683792e-08</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>4.233649916124036e-08</v>
+        <v>4.182165454503595e-08</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>4.169890645888257e-08</v>
+        <v>4.127458896914489e-08</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>4.113074967617989e-08</v>
+        <v>4.080137476078219e-08</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>4.06170874252579e-08</v>
+        <v>4.038463390156532e-08</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>4.014297831824216e-08</v>
+        <v>4.000698837311174e-08</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>3.969348096725828e-08</v>
+        <v>3.965106015703898e-08</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>3.925365398443181e-08</v>
+        <v>3.929947123496447e-08</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>3.880855598188834e-08</v>
+        <v>3.89348435885057e-08</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>3.834324557175343e-08</v>
+        <v>3.853979919928016e-08</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>3.784278136615267e-08</v>
+        <v>3.809696004890531e-08</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>3.729254294832567e-08</v>
+        <v>3.758930846584694e-08</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>3.668908121495016e-08</v>
+        <v>3.701236855386664e-08</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>3.60427454278247e-08</v>
+        <v>3.637715552220377e-08</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>3.536473858789039e-08</v>
+        <v>3.569564305329304e-08</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>3.466626369608833e-08</v>
+        <v>3.497980482956912e-08</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>3.395852375335961e-08</v>
+        <v>3.42416145334667e-08</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>3.32527217606453e-08</v>
+        <v>3.349304584742046e-08</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>3.256006071888652e-08</v>
+        <v>3.274607245386508e-08</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>3.189174362902433e-08</v>
+        <v>3.201266803523524e-08</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>3.125897349199986e-08</v>
+        <v>3.130480627396564e-08</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>3.067295330875417e-08</v>
+        <v>3.063446085249094e-08</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>3.014488608022837e-08</v>
+        <v>3.001360545324585e-08</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>2.968370754235352e-08</v>
+        <v>2.945220326629694e-08</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>2.928704842518647e-08</v>
+        <v>2.895019279208211e-08</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>2.894902289403727e-08</v>
+        <v>2.85043942248183e-08</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>2.866374399555605e-08</v>
+        <v>2.811162676675316e-08</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>2.842532477639291e-08</v>
+        <v>2.77687096201343e-08</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>2.822787828319796e-08</v>
+        <v>2.747246198720938e-08</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>2.806551756262131e-08</v>
+        <v>2.721970307022601e-08</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>2.793249414414875e-08</v>
+        <v>2.700730107886707e-08</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>2.782565546931076e-08</v>
+        <v>2.683304288533985e-08</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>2.774415446240215e-08</v>
+        <v>2.669553124489378e-08</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>2.768722418824761e-08</v>
+        <v>2.659339727356261e-08</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>2.765409771167184e-08</v>
+        <v>2.652527208738004e-08</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>2.764400809749957e-08</v>
+        <v>2.648978680237983e-08</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>2.765618841055544e-08</v>
+        <v>2.648557253459566e-08</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>2.76898717156642e-08</v>
+        <v>2.651126040006128e-08</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>2.774429107765056e-08</v>
+        <v>2.656548151481043e-08</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>2.781867956133919e-08</v>
+        <v>2.664686699487684e-08</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>2.791227023155483e-08</v>
+        <v>2.675404795629425e-08</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>2.802429615312216e-08</v>
+        <v>2.688565551509635e-08</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>2.81539903908659e-08</v>
+        <v>2.704032078731691e-08</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>2.830058600961072e-08</v>
+        <v>2.721667488898963e-08</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>2.846331607418136e-08</v>
+        <v>2.741334893614826e-08</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>2.86414136494025e-08</v>
+        <v>2.762897404482651e-08</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>2.883411180009884e-08</v>
+        <v>2.786218133105812e-08</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>2.90406435910951e-08</v>
+        <v>2.811160191087681e-08</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>2.926024208721597e-08</v>
+        <v>2.837586690031632e-08</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>2.949214035328617e-08</v>
+        <v>2.865360741541037e-08</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>2.973557145413037e-08</v>
+        <v>2.894345457219268e-08</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>2.998976845457331e-08</v>
+        <v>2.9244039486697e-08</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>3.025396441943965e-08</v>
+        <v>2.955399327495704e-08</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>3.052739241355413e-08</v>
+        <v>2.987194705300653e-08</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>3.080928550174144e-08</v>
+        <v>3.01965319368792e-08</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>3.109887674882629e-08</v>
+        <v>3.05263790426088e-08</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>3.139539921963336e-08</v>
+        <v>3.086011948622903e-08</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>3.169808597898737e-08</v>
+        <v>3.119638438377364e-08</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>3.200627919840717e-08</v>
+        <v>3.153394670210541e-08</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>3.232089936058259e-08</v>
+        <v>3.187363138803135e-08</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>3.264405477438608e-08</v>
+        <v>3.221780769441716e-08</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>3.297788277523636e-08</v>
+        <v>3.256888261186482e-08</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>3.332452069855218e-08</v>
+        <v>3.292926313097638e-08</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>3.368610587975223e-08</v>
+        <v>3.33013562423538e-08</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>3.406477565425522e-08</v>
+        <v>3.36875689365991e-08</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>3.446266735747988e-08</v>
+        <v>3.409030820431427e-08</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>3.488191832484494e-08</v>
+        <v>3.451198103610131e-08</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>3.532466589176909e-08</v>
+        <v>3.495499442256223e-08</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>3.579304739367106e-08</v>
+        <v>3.542175535429903e-08</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>3.628920016596957e-08</v>
+        <v>3.591467082191369e-08</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>3.681526154408334e-08</v>
+        <v>3.643614781600825e-08</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>3.737336886343107e-08</v>
+        <v>3.698859332718467e-08</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>3.796565945943148e-08</v>
+        <v>3.757441434604497e-08</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>3.859427066750269e-08</v>
+        <v>3.819601786319055e-08</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>3.926133982306461e-08</v>
+        <v>3.885581086922457e-08</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>3.996900426153535e-08</v>
+        <v>3.955620035474849e-08</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>4.071940131833366e-08</v>
+        <v>4.029959331036428e-08</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>4.151466832887824e-08</v>
+        <v>4.108839672667396e-08</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>4.235694262858778e-08</v>
+        <v>4.19250175942795e-08</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>4.324836155288107e-08</v>
+        <v>4.281186290378295e-08</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>4.419106243717676e-08</v>
+        <v>4.375133964578626e-08</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>4.518718261689358e-08</v>
+        <v>4.474585481089146e-08</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>4.623885942745028e-08</v>
+        <v>4.579781538970055e-08</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>4.734823020426555e-08</v>
+        <v>4.690962837281554e-08</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>4.85174322827581e-08</v>
+        <v>4.808370075083839e-08</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>4.974860299834666e-08</v>
+        <v>4.932243951437113e-08</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>5.104387968644994e-08</v>
+        <v>5.062825165401578e-08</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>5.240539968248666e-08</v>
+        <v>5.20035441603743e-08</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>5.383530032187555e-08</v>
+        <v>5.345072402404871e-08</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>5.533571894003532e-08</v>
+        <v>5.497219823564102e-08</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>5.690879287238468e-08</v>
+        <v>5.657037378575324e-08</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>5.855665945434235e-08</v>
+        <v>5.824765766498731e-08</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>6.028145602132703e-08</v>
+        <v>6.000645686394528e-08</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>6.208531990875748e-08</v>
+        <v>6.184917837322916e-08</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>6.397038845205237e-08</v>
+        <v>6.377822918344093e-08</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>6.593878432995708e-08</v>
+        <v>6.579599490401208e-08</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>6.799171797454876e-08</v>
+        <v>6.790353035797583e-08</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>7.01289666184407e-08</v>
+        <v>7.009979961548119e-08</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>7.2350181934548e-08</v>
+        <v>7.238358358005766e-08</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>7.465501559578584e-08</v>
+        <v>7.475366315523474e-08</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>7.704311927506936e-08</v>
+        <v>7.720881924454186e-08</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>7.951414464531377e-08</v>
+        <v>7.974783275150854e-08</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>8.206774337943414e-08</v>
+        <v>8.236948457966427e-08</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>8.470356715034571e-08</v>
+        <v>8.50725556325385e-08</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>8.742126763096359e-08</v>
+        <v>8.785582681366078e-08</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>9.022049649420297e-08</v>
+        <v>9.071807902656057e-08</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>9.310090541297894e-08</v>
+        <v>9.365809317476733e-08</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>9.606214606020671e-08</v>
+        <v>9.667465016181055e-08</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>9.910387010880144e-08</v>
+        <v>9.976653089121973e-08</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.022257292316783e-07</v>
+        <v>1.029325162665244e-07</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.054273751017492e-07</v>
+        <v>1.061713871912508e-07</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.087084593919357e-07</v>
+        <v>1.094819245689346e-07</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.120686337751497e-07</v>
+        <v>1.128629093031025e-07</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.155075499243064e-07</v>
+        <v>1.163131222972836e-07</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>1.190249957418753e-07</v>
+        <v>1.198315150076809e-07</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>1.226246781821455e-07</v>
+        <v>1.234219453498004e-07</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>1.263147169471301e-07</v>
+        <v>1.270937957813392e-07</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>1.301034671435125e-07</v>
+        <v>1.308567434750139e-07</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>1.339992838779759e-07</v>
+        <v>1.347204656035411e-07</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>1.380105222572035e-07</v>
+        <v>1.386946393396372e-07</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.421455373878786e-07</v>
+        <v>1.427889418560189e-07</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.464126843766845e-07</v>
+        <v>1.470130503254027e-07</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>1.508203183303043e-07</v>
+        <v>1.51376641920505e-07</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>1.553767943554214e-07</v>
+        <v>1.558893938140425e-07</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.600904675587189e-07</v>
+        <v>1.605609831787317e-07</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.649696930468801e-07</v>
+        <v>1.654010871872891e-07</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.700228259265883e-07</v>
+        <v>1.704193830124312e-07</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>1.752582213045267e-07</v>
+        <v>1.756255478268746e-07</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>1.806842342873786e-07</v>
+        <v>1.810292588033359e-07</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>1.863086774932637e-07</v>
+        <v>1.866396277416004e-07</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.921196526945104e-07</v>
+        <v>1.92445224112248e-07</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.980804266317957e-07</v>
+        <v>1.984087347118526e-07</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>2.041526815337809e-07</v>
+        <v>2.044911949838292e-07</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>2.102980996291278e-07</v>
+        <v>2.106536403715931e-07</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>2.164783631464976e-07</v>
+        <v>2.168571063185596e-07</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>2.22655154314552e-07</v>
+        <v>2.230626282681442e-07</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>2.287901553619524e-07</v>
+        <v>2.292312416637618e-07</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>2.348450485173604e-07</v>
+        <v>2.35323981948828e-07</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>2.407815160094374e-07</v>
+        <v>2.413018845667578e-07</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>2.465617434709841e-07</v>
+        <v>2.471265061392984e-07</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>2.521659452994916e-07</v>
+        <v>2.527780686124796e-07</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>2.575969014298171e-07</v>
+        <v>2.582601562136523e-07</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>2.628588169094598e-07</v>
+        <v>2.635778286006838e-07</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>2.679558967859189e-07</v>
+        <v>2.687361454314416e-07</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>2.728923461066935e-07</v>
+        <v>2.737401663637931e-07</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>2.776723699192831e-07</v>
+        <v>2.785949510556057e-07</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>2.823001732711867e-07</v>
+        <v>2.83305559164747e-07</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>2.867799612098993e-07</v>
+        <v>2.878770503490799e-07</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>2.911159387829288e-07</v>
+        <v>2.923144842664809e-07</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>2.953123110377699e-07</v>
+        <v>2.966229205748127e-07</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>2.99373283021922e-07</v>
+        <v>3.008074189319429e-07</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>3.033030597828842e-07</v>
+        <v>3.04873038995739e-07</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>3.071008861946872e-07</v>
+        <v>3.088188273176959e-07</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>3.107386772829417e-07</v>
+        <v>3.126106990907522e-07</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>3.141789859357263e-07</v>
+        <v>3.162032199997675e-07</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>3.173843567572175e-07</v>
+        <v>3.195509456872141e-07</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>3.203173343515917e-07</v>
+        <v>3.226084317955642e-07</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>3.229404633230258e-07</v>
+        <v>3.2533023396729e-07</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>3.252162882756962e-07</v>
+        <v>3.276709078448638e-07</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>3.271073538137794e-07</v>
+        <v>3.295850090707578e-07</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>3.28576204541452e-07</v>
+        <v>3.310270932874443e-07</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>3.295853850628906e-07</v>
+        <v>3.319517161373953e-07</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>3.30097439296438e-07</v>
+        <v>3.323134338589205e-07</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>3.300702097701578e-07</v>
+        <v>3.320708871546427e-07</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>3.29445611895198e-07</v>
+        <v>3.311965538555208e-07</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>3.281621915815485e-07</v>
+        <v>3.296658391408987e-07</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>3.261584947391984e-07</v>
+        <v>3.27454148190119e-07</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>3.233730672781375e-07</v>
+        <v>3.245368861825251e-07</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>3.197488018991009e-07</v>
+        <v>3.208926330843873e-07</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>3.153569661685091e-07</v>
+        <v>3.165937306437632e-07</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>3.104152952120267e-07</v>
+        <v>3.118194968400415e-07</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>3.051495092157563e-07</v>
+        <v>3.06755081740461e-07</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>2.99785328365801e-07</v>
+        <v>3.015856354122605e-07</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>2.945191066578178e-07</v>
+        <v>2.964718912955353e-07</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>2.893736950363132e-07</v>
+        <v>2.914303230798373e-07</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>2.843084515512787e-07</v>
+        <v>2.864246130538559e-07</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>2.792826393888317e-07</v>
+        <v>2.81418364631364e-07</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>2.742555217350899e-07</v>
+        <v>2.763751812261341e-07</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>2.69186361776171e-07</v>
+        <v>2.712586662519388e-07</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>2.640344226981926e-07</v>
+        <v>2.660324231225509e-07</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>2.587589676872723e-07</v>
+        <v>2.606600552517428e-07</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>2.533192599295278e-07</v>
+        <v>2.551051660532875e-07</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>2.476745626110823e-07</v>
+        <v>2.493313589409631e-07</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>2.417841389180366e-07</v>
+        <v>2.43302237328525e-07</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>2.356152155728588e-07</v>
+        <v>2.369892995835171e-07</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>2.292037507002734e-07</v>
+        <v>2.304321835556789e-07</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>2.226208470710096e-07</v>
+        <v>2.237053690723941e-07</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>2.159378906832411e-07</v>
+        <v>2.168836167493134e-07</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>2.092262675351664e-07</v>
+        <v>2.100416872021132e-07</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>2.025573636249779e-07</v>
+        <v>2.032543410464629e-07</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>1.960025649508681e-07</v>
+        <v>1.965963388980327e-07</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>1.896332575110293e-07</v>
+        <v>1.901424413724922e-07</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>1.83520827303654e-07</v>
+        <v>1.839674090855114e-07</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>1.777354878438483e-07</v>
+        <v>1.781447447740071e-07</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>1.723042283902839e-07</v>
+        <v>1.727015787585924e-07</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>1.671992145652011e-07</v>
+        <v>1.676062247438976e-07</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>1.623890784581375e-07</v>
+        <v>1.628232055434411e-07</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>1.57842452158631e-07</v>
+        <v>1.583170439707419e-07</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>1.535279677562191e-07</v>
+        <v>1.540522628393185e-07</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>1.494142573404393e-07</v>
+        <v>1.499933849626897e-07</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>1.454699530008295e-07</v>
+        <v>1.461049331543742e-07</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>1.41663686826927e-07</v>
+        <v>1.423514302278905e-07</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>1.379640909082698e-07</v>
+        <v>1.386973989967576e-07</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>1.343397973343953e-07</v>
+        <v>1.351073622744938e-07</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>1.307594381948413e-07</v>
+        <v>1.315458428746182e-07</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.271916455791454e-07</v>
+        <v>1.279773636106492e-07</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>1.236050515768451e-07</v>
+        <v>1.243664472961057e-07</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.199683261460875e-07</v>
+        <v>1.206776588272252e-07</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.16285629402639e-07</v>
+        <v>1.169150026878062e-07</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.126624611929982e-07</v>
+        <v>1.131951004209007e-07</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.092222919879099e-07</v>
+        <v>1.096545440080157e-07</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.060885922581191e-07</v>
+        <v>1.064299254306577e-07</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.033848324743707e-07</v>
+        <v>1.036578366703335e-07</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.012344831074095e-07</v>
+        <v>1.014748697085497e-07</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>9.976101462798042e-08</v>
+        <v>1.00017616526813e-07</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>9.89891415228067e-08</v>
+        <v>9.931401928490075e-08</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>9.843972567299868e-08</v>
+        <v>9.883768921955652e-08</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>9.759267163980347e-08</v>
+        <v>9.801658286780033e-08</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>9.647075939023575e-08</v>
+        <v>9.687321664748337e-08</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>9.525112138680919e-08</v>
+        <v>9.559915470254933e-08</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>9.411090085994335e-08</v>
+        <v>9.438597297001349e-08</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>9.322724104006547e-08</v>
+        <v>9.342524738689916e-08</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>9.277728515759536e-08</v>
+        <v>9.290855389022183e-08</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>9.29381764429576e-08</v>
+        <v>9.302746841700214e-08</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>9.388021233191691e-08</v>
+        <v>9.396609298744819e-08</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>9.560235504416773e-08</v>
+        <v>9.572147388674099e-08</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>9.792414500373886e-08</v>
+        <v>9.809477311755419e-08</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.006566584457122e-07</v>
+        <v>1.008779118789416e-07</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.036109716051696e-07</v>
+        <v>1.038628113699571e-07</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.066062811965675e-07</v>
+        <v>1.06852363758965e-07</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.095197969028903e-07</v>
+        <v>1.097278381755877e-07</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.122539665876004e-07</v>
+        <v>1.124046011580742e-07</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.147113416880675e-07</v>
+        <v>1.147981591755945e-07</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.167944736416616e-07</v>
+        <v>1.168240186973189e-07</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.184063904079188e-07</v>
+        <v>1.18398081126165e-07</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.194875984580565e-07</v>
+        <v>1.194673094401614e-07</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.200424802547278e-07</v>
+        <v>1.200316059902413e-07</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.200816494574696e-07</v>
+        <v>1.200960374410029e-07</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.196157197258189e-07</v>
+        <v>1.19665670457045e-07</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.186553047193123e-07</v>
+        <v>1.187455717029657e-07</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.172124734816729e-07</v>
+        <v>1.173424644573816e-07</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.153212031287413e-07</v>
+        <v>1.154880092077358e-07</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.130324030149274e-07</v>
+        <v>1.132331398292374e-07</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.103974219593318e-07</v>
+        <v>1.106292904247143e-07</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.074676087810547e-07</v>
+        <v>1.077278950969947e-07</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.042943122991968e-07</v>
+        <v>1.045803879489068e-07</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.009288813328584e-07</v>
+        <v>1.012382030832787e-07</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>9.742266470114015e-08</v>
+        <v>9.775277460293845e-08</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>9.382701122314233e-08</v>
+        <v>9.417553661071424e-08</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>9.019316502132038e-08</v>
+        <v>9.055781830019897e-08</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>8.656031408353805e-08</v>
+        <v>8.693886824999666e-08</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>8.294455382657271e-08</v>
+        <v>8.333479557736267e-08</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>7.935937090380818e-08</v>
+        <v>7.975909533897474e-08</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>7.581825196862843e-08</v>
+        <v>7.622526259151077e-08</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>7.233468367441727e-08</v>
+        <v>7.274679239164852e-08</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>6.892215267455866e-08</v>
+        <v>6.933717979606583e-08</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>6.55941456224396e-08</v>
+        <v>6.600991986144363e-08</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>6.236414917143447e-08</v>
+        <v>6.27785076444502e-08</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>5.924564997493962e-08</v>
+        <v>5.965643820177586e-08</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>5.625213468632689e-08</v>
+        <v>5.665720659008634e-08</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>5.339708995899175e-08</v>
+        <v>5.379430786607103e-08</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>5.069400244630956e-08</v>
+        <v>5.108123708639924e-08</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>4.815635880166706e-08</v>
+        <v>4.853148930775158e-08</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>4.579763377994545e-08</v>
+        <v>4.615854788337998e-08</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>4.362564315029629e-08</v>
+        <v>4.39703299602754e-08</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>4.163350646405827e-08</v>
+        <v>4.196029741313961e-08</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>3.981198844868364e-08</v>
+        <v>4.011959590029102e-08</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>3.815185383162466e-08</v>
+        <v>3.843937108004805e-08</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>3.664386734033355e-08</v>
+        <v>3.691076861072912e-08</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>3.527879370226257e-08</v>
+        <v>3.552493415065265e-08</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>3.404739764486399e-08</v>
+        <v>3.427301335813706e-08</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>3.294044389559005e-08</v>
+        <v>3.314615189150077e-08</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>3.194869718189299e-08</v>
+        <v>3.213549540906219e-08</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>3.106292223122507e-08</v>
+        <v>3.123218956913975e-08</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>3.027388377103852e-08</v>
+        <v>3.042738003005187e-08</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>2.957234652878562e-08</v>
+        <v>2.971221245011696e-08</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>2.89490752319186e-08</v>
+        <v>2.907783248765345e-08</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>2.839546810446193e-08</v>
+        <v>2.851585887985184e-08</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>2.790783192699879e-08</v>
+        <v>2.802157594711527e-08</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>2.748476542575215e-08</v>
+        <v>2.759197957563223e-08</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>2.712488026055846e-08</v>
+        <v>2.722407531007961e-08</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>2.682678809125421e-08</v>
+        <v>2.69148686951343e-08</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>2.658910057767588e-08</v>
+        <v>2.666136527547323e-08</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>2.641042937965994e-08</v>
+        <v>2.646057059577327e-08</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>2.628938615704285e-08</v>
+        <v>2.63094902007113e-08</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>2.622458256966109e-08</v>
+        <v>2.620512963496425e-08</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>2.620721888166548e-08</v>
+        <v>2.61388567737482e-08</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>2.618950400450454e-08</v>
+        <v>2.607237971324603e-08</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>2.611086960346477e-08</v>
+        <v>2.595768720749026e-08</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>2.591073993243696e-08</v>
+        <v>2.574676237284388e-08</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>2.552854990192543e-08</v>
+        <v>2.539159816730902e-08</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>2.499958972329793e-08</v>
+        <v>2.493271222611991e-08</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>2.465635882529596e-08</v>
+        <v>2.468174132720356e-08</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>2.449979241122831e-08</v>
+        <v>2.460242952447197e-08</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>2.426079712863794e-08</v>
+        <v>2.438155778710439e-08</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>2.381075721261267e-08</v>
+        <v>2.387734280038147e-08</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>2.325930264208316e-08</v>
+        <v>2.323712814504256e-08</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>2.27380980797837e-08</v>
+        <v>2.263499794131249e-08</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>2.237132346709804e-08</v>
+        <v>2.223493071274929e-08</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>2.21596624800258e-08</v>
+        <v>2.203416484798011e-08</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>2.20024817041874e-08</v>
+        <v>2.189314411056344e-08</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>2.180279656245108e-08</v>
+        <v>2.167814659066854e-08</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>2.153741498303253e-08</v>
+        <v>2.136516619661207e-08</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>2.12291714048572e-08</v>
+        <v>2.099862975215678e-08</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>2.090158806586834e-08</v>
+        <v>2.062398272526378e-08</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>2.057063429752047e-08</v>
+        <v>2.027277306948342e-08</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>2.023164007735541e-08</v>
+        <v>1.993857187226053e-08</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.987644207721419e-08</v>
+        <v>1.960852246155548e-08</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.949687696893781e-08</v>
+        <v>1.926976816532862e-08</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.908478142436727e-08</v>
+        <v>1.890945231154029e-08</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.863199211534358e-08</v>
+        <v>1.851471822815087e-08</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.813034571370777e-08</v>
+        <v>1.807270924312068e-08</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.757167889130083e-08</v>
+        <v>1.75705686844101e-08</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>1.694782831996376e-08</v>
+        <v>1.699543987997946e-08</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>1.625937868178219e-08</v>
+        <v>1.634366036279988e-08</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>1.557469735088089e-08</v>
+        <v>1.568280763348804e-08</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>1.49938013816138e-08</v>
+        <v>1.51137231738878e-08</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>1.461688642974883e-08</v>
+        <v>1.473743617687323e-08</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>1.454414815105394e-08</v>
+        <v>1.465497583531845e-08</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>1.487576472051325e-08</v>
+        <v>1.496735405781725e-08</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>1.56766228308203e-08</v>
+        <v>1.57406879862694e-08</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>1.690230188328037e-08</v>
+        <v>1.693301620697482e-08</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.848728286264967e-08</v>
+        <v>1.848151605940254e-08</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>2.036604675368442e-08</v>
+        <v>2.032336488302159e-08</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>2.247307454114086e-08</v>
+        <v>2.2395740017301e-08</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>2.474284720977519e-08</v>
+        <v>2.463581880170979e-08</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>2.710984574434366e-08</v>
+        <v>2.6980778575717e-08</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>2.950855112960247e-08</v>
+        <v>2.936779667879165e-08</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>3.187297433849118e-08</v>
+        <v>3.173327023874749e-08</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>3.413185799472801e-08</v>
+        <v>3.400485101291839e-08</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>3.621063638973406e-08</v>
+        <v>3.610469898305794e-08</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>3.803469260735195e-08</v>
+        <v>3.79548891272018e-08</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>3.952940973141165e-08</v>
+        <v>3.947749642337284e-08</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>4.062060612399844e-08</v>
+        <v>4.059504194568521e-08</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>4.128301778457928e-08</v>
+        <v>4.128018014057229e-08</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>4.158443253379826e-08</v>
+        <v>4.160092986382482e-08</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>4.160306156904546e-08</v>
+        <v>4.163599239694334e-08</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>4.141711608771179e-08</v>
+        <v>4.146406902142924e-08</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>4.110441737323556e-08</v>
+        <v>4.116346978323313e-08</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>4.071393161182355e-08</v>
+        <v>4.078355182784492e-08</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>4.024644058935614e-08</v>
+        <v>4.032532458127828e-08</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>3.969814877728167e-08</v>
+        <v>3.978520464048562e-08</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>3.90652606470484e-08</v>
+        <v>3.91596086024194e-08</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>3.834398067010467e-08</v>
+        <v>3.844495306403206e-08</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>3.753051331789878e-08</v>
+        <v>3.763765462227602e-08</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>3.662236084312475e-08</v>
+        <v>3.673540841667723e-08</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>3.562776765156432e-08</v>
+        <v>3.57464924951669e-08</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>3.456028311660782e-08</v>
+        <v>3.468441123096109e-08</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>3.34334941367971e-08</v>
+        <v>3.356270596614397e-08</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>3.2260987610674e-08</v>
+        <v>3.239491804279973e-08</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>3.105635043678039e-08</v>
+        <v>3.119458880301258e-08</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>2.983316951365809e-08</v>
+        <v>2.997525958886666e-08</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>2.860503173984896e-08</v>
+        <v>2.875047174244619e-08</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>2.738552401389482e-08</v>
+        <v>2.753376660583533e-08</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>2.618823323433754e-08</v>
+        <v>2.633868552111828e-08</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>2.502674629971896e-08</v>
+        <v>2.517876983037923e-08</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>2.391465010858092e-08</v>
+        <v>2.406756087570234e-08</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>2.286490894177423e-08</v>
+        <v>2.301798090523925e-08</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>2.188182697517311e-08</v>
+        <v>2.203434107477512e-08</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>2.096336221243197e-08</v>
+        <v>2.111464228458373e-08</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>2.010732689194063e-08</v>
+        <v>2.025674049464533e-08</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>1.931153325208889e-08</v>
+        <v>1.945849166494016e-08</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>1.857379353126658e-08</v>
+        <v>1.871775175544847e-08</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>1.789191996786351e-08</v>
+        <v>1.803237672615051e-08</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>1.726372480026949e-08</v>
+        <v>1.740022253702651e-08</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>1.668702026687433e-08</v>
+        <v>1.681914514805671e-08</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>1.615961860606784e-08</v>
+        <v>1.628700051922138e-08</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>1.567933205624029e-08</v>
+        <v>1.580164461050118e-08</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>1.524397285578015e-08</v>
+        <v>1.536093338187503e-08</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>1.485135324307893e-08</v>
+        <v>1.496272279332488e-08</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>1.449928545652492e-08</v>
+        <v>1.460486880482943e-08</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>1.418558173450929e-08</v>
+        <v>1.428522737637031e-08</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>1.39080543154209e-08</v>
+        <v>1.400165446792679e-08</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>1.366451543764987e-08</v>
+        <v>1.375200603947943e-08</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.345277733958602e-08</v>
+        <v>1.353413805100847e-08</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.327065225961917e-08</v>
+        <v>1.334590646249418e-08</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>1.311595243613913e-08</v>
+        <v>1.318516723391678e-08</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>1.298649010753571e-08</v>
+        <v>1.304977632525652e-08</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>1.288007751219872e-08</v>
+        <v>1.293758969649364e-08</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>1.279452688851797e-08</v>
+        <v>1.28464633076084e-08</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>1.272765047488329e-08</v>
+        <v>1.277425311858103e-08</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.267726050968448e-08</v>
+        <v>1.271881508939177e-08</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.264116923131136e-08</v>
+        <v>1.267800518002089e-08</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.261718887815373e-08</v>
+        <v>1.26496793504486e-08</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.260313168860141e-08</v>
+        <v>1.263169356065517e-08</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.259680990104422e-08</v>
+        <v>1.262190377062083e-08</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.259603575387197e-08</v>
+        <v>1.261816594032583e-08</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.259862148547446e-08</v>
+        <v>1.261833602975041e-08</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.260237933424152e-08</v>
+        <v>1.262026999887482e-08</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.260512153856296e-08</v>
+        <v>1.262182380767931e-08</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.260466033682858e-08</v>
+        <v>1.26208534161441e-08</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.259880796742822e-08</v>
+        <v>1.261521478424946e-08</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.258537666875166e-08</v>
+        <v>1.260276387197562e-08</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.256217867918873e-08</v>
+        <v>1.258135663930283e-08</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.252703978040971e-08</v>
+        <v>1.254886217892462e-08</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.247950965330848e-08</v>
+        <v>1.250482122241871e-08</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.242253285861978e-08</v>
+        <v>1.245206646476266e-08</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.235945062057373e-08</v>
+        <v>1.239381523949859e-08</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.229360416340045e-08</v>
+        <v>1.233328488016859e-08</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.222833471133005e-08</v>
+        <v>1.227369272031479e-08</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.216698348859266e-08</v>
+        <v>1.221825609347929e-08</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.211289171941838e-08</v>
+        <v>1.217019233320422e-08</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.206940062803734e-08</v>
+        <v>1.213271877303167e-08</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.203985143867964e-08</v>
+        <v>1.210905274650375e-08</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.202758537557542e-08</v>
+        <v>1.210241158716258e-08</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.203594366295477e-08</v>
+        <v>1.211601262855028e-08</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.206826752504779e-08</v>
+        <v>1.21530732042089e-08</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.212789818608471e-08</v>
+        <v>1.221681064768069e-08</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.221817687029541e-08</v>
+        <v>1.231044229250753e-08</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.234244480191023e-08</v>
+        <v>1.243718547223174e-08</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.250404320515921e-08</v>
+        <v>1.260025752039536e-08</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.270631330427247e-08</v>
+        <v>1.28028757705405e-08</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>1.295259632348013e-08</v>
+        <v>1.304825755620928e-08</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.32462334870123e-08</v>
+        <v>1.333962021094381e-08</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.35905660190991e-08</v>
+        <v>1.368018106828619e-08</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.398893514397064e-08</v>
+        <v>1.407315746177853e-08</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>1.444468208585704e-08</v>
+        <v>1.452176672496295e-08</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.496114806898842e-08</v>
+        <v>1.502922619138157e-08</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>1.55416743175949e-08</v>
+        <v>1.559875319457648e-08</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>1.618960205590659e-08</v>
+        <v>1.62335650680898e-08</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>1.69082725081536e-08</v>
+        <v>1.693687914546365e-08</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>1.770102689856606e-08</v>
+        <v>1.771191276024012e-08</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>1.857062901927108e-08</v>
+        <v>1.856139247767527e-08</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>1.951348611871504e-08</v>
+        <v>1.948264234031914e-08</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>2.052206744394737e-08</v>
+        <v>2.046963942371714e-08</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>2.158878355780673e-08</v>
+        <v>2.151631092681553e-08</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>2.270604502313182e-08</v>
+        <v>2.26165840485606e-08</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>2.386626240276129e-08</v>
+        <v>2.376438598789859e-08</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>2.506184625953382e-08</v>
+        <v>2.495364394377578e-08</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>2.628520715628808e-08</v>
+        <v>2.617828511513842e-08</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>2.752875565586274e-08</v>
+        <v>2.743223670093278e-08</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>2.878490232109648e-08</v>
+        <v>2.870942590010511e-08</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>3.004552938756358e-08</v>
+        <v>3.000292858816172e-08</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>3.129832327897772e-08</v>
+        <v>3.129905969293976e-08</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>3.252896955282387e-08</v>
+        <v>3.258091003397164e-08</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>3.372314144408521e-08</v>
+        <v>3.383155057484945e-08</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>3.486651218774497e-08</v>
+        <v>3.503405227916532e-08</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>3.594475501878632e-08</v>
+        <v>3.617148611051136e-08</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>3.694354317219243e-08</v>
+        <v>3.722692303247967e-08</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>3.784854988294652e-08</v>
+        <v>3.818343400866236e-08</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>3.864544838603177e-08</v>
+        <v>3.902409000265155e-08</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>3.931991191643079e-08</v>
+        <v>3.973196197803873e-08</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>3.985761370912851e-08</v>
+        <v>4.029012089841785e-08</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>4.02442269991061e-08</v>
+        <v>4.06816377273789e-08</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>4.04654250213482e-08</v>
+        <v>4.088958342851545e-08</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>4.050688101083716e-08</v>
+        <v>4.089702896541886e-08</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>4.035783147297099e-08</v>
+        <v>4.069160921158887e-08</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>4.002957697687358e-08</v>
+        <v>4.028921914636185e-08</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>3.954185279182399e-08</v>
+        <v>3.971655708621283e-08</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>3.891441112557416e-08</v>
+        <v>3.900034304276076e-08</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>3.816700418587608e-08</v>
+        <v>3.816729702762456e-08</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>3.731938418048171e-08</v>
+        <v>3.724413905242321e-08</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>3.639130331714304e-08</v>
+        <v>3.625758912877567e-08</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>3.540251380361202e-08</v>
+        <v>3.523436726830086e-08</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>3.437276784764065e-08</v>
+        <v>3.420119348261773e-08</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>3.332166531235658e-08</v>
+        <v>3.318422068024461e-08</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>3.226550145140565e-08</v>
+        <v>3.219730035576789e-08</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>3.121737398818855e-08</v>
+        <v>3.124238119246747e-08</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>3.019024972461359e-08</v>
+        <v>3.032092451816433e-08</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>2.919709546258907e-08</v>
+        <v>2.94343916606794e-08</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>2.825087800402328e-08</v>
+        <v>2.858424394783363e-08</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>2.736456415082454e-08</v>
+        <v>2.777194270744798e-08</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>2.655112070490115e-08</v>
+        <v>2.699894926734339e-08</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>2.582351446816139e-08</v>
+        <v>2.626672495534081e-08</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>2.519468758186064e-08</v>
+        <v>2.557673015461455e-08</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>2.466954272773173e-08</v>
+        <v>2.493011729021976e-08</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>2.423341620192734e-08</v>
+        <v>2.43272892806948e-08</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>2.386872440141568e-08</v>
+        <v>2.376853719543466e-08</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>2.355788372316493e-08</v>
+        <v>2.325415210383431e-08</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>2.328331056414329e-08</v>
+        <v>2.278442507528873e-08</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>2.302742132131894e-08</v>
+        <v>2.235964717919289e-08</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>2.277263239166008e-08</v>
+        <v>2.198010948494176e-08</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>2.250401725286256e-08</v>
+        <v>2.164616492901383e-08</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>2.222706956806183e-08</v>
+        <v>2.135864190853293e-08</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>2.195675089137037e-08</v>
+        <v>2.111858926962755e-08</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>2.170807463049011e-08</v>
+        <v>2.092705706577766e-08</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>2.149605419312305e-08</v>
+        <v>2.078509535046319e-08</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>2.133570298697114e-08</v>
+        <v>2.069375417716411e-08</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>2.124180971288637e-08</v>
+        <v>2.065411218457494e-08</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>2.122196952452221e-08</v>
+        <v>2.066816311072979e-08</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>2.127523830542476e-08</v>
+        <v>2.073898698394768e-08</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>2.140017560399774e-08</v>
+        <v>2.086972697190733e-08</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>2.159534096864421e-08</v>
+        <v>2.106352624228663e-08</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>2.185929394776814e-08</v>
+        <v>2.132352796276447e-08</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>2.219059408977293e-08</v>
+        <v>2.165287530101908e-08</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>2.258780094306208e-08</v>
+        <v>2.205471142472889e-08</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>2.304939702319121e-08</v>
+        <v>2.253195990331175e-08</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>2.357202843507496e-08</v>
+        <v>2.308230923318445e-08</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>2.415046821867536e-08</v>
+        <v>2.369810834697308e-08</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>2.477940504934643e-08</v>
+        <v>2.437146567832644e-08</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>2.545352760244229e-08</v>
+        <v>2.509448966089333e-08</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>2.6167524553317e-08</v>
+        <v>2.585928872832254e-08</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>2.691608457732466e-08</v>
+        <v>2.665797131426289e-08</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>2.769389634981933e-08</v>
+        <v>2.748264585236316e-08</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>2.84956485461551e-08</v>
+        <v>2.832542077627214e-08</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>2.93161270606987e-08</v>
+        <v>2.917882481451877e-08</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>3.015082934698546e-08</v>
+        <v>3.003846289099058e-08</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>3.099556908203785e-08</v>
+        <v>3.090130701929345e-08</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>3.184616137755375e-08</v>
+        <v>3.176433541538721e-08</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>3.269842134523101e-08</v>
+        <v>3.262452629523166e-08</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>3.354816409676753e-08</v>
+        <v>3.347885787478665e-08</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>3.439120474386116e-08</v>
+        <v>3.4324308370012e-08</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>3.522335839820978e-08</v>
+        <v>3.515785599686752e-08</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>3.604044017151125e-08</v>
+        <v>3.597647897131303e-08</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>3.683819255412471e-08</v>
+        <v>3.677707839610801e-08</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>3.760526804200463e-08</v>
+        <v>3.754902684082096e-08</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>3.831737908441316e-08</v>
+        <v>3.826795644513344e-08</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>3.894886101485559e-08</v>
+        <v>3.890803705396464e-08</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>3.947404916683719e-08</v>
+        <v>3.944343851223374e-08</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>3.98672788738632e-08</v>
+        <v>3.984833066485987e-08</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>4.010288546943893e-08</v>
+        <v>4.00968833567622e-08</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>4.015520428706962e-08</v>
+        <v>4.016326643285992e-08</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>3.999857066026056e-08</v>
+        <v>4.002164973807217e-08</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>3.96073326026727e-08</v>
+        <v>3.964621570121657e-08</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>3.896703651049322e-08</v>
+        <v>3.902226012477942e-08</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>3.809497097811956e-08</v>
+        <v>3.816658004894372e-08</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>3.701401001207811e-08</v>
+        <v>3.710151552619249e-08</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>3.57470276189023e-08</v>
+        <v>3.584940660901566e-08</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>3.431690751117028e-08</v>
+        <v>3.443260304011357e-08</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>3.278019739174228e-08</v>
+        <v>3.290706363296175e-08</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>3.130247872527608e-08</v>
+        <v>3.143760308491791e-08</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>3.00713679257619e-08</v>
+        <v>3.021103509480803e-08</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>2.92744814071885e-08</v>
+        <v>2.941417336145666e-08</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>2.909943416169563e-08</v>
+        <v>2.923383018078394e-08</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>2.963869187638151e-08</v>
+        <v>2.976293630503041e-08</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>3.063187142523796e-08</v>
+        <v>3.074627500132922e-08</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>3.173681565392945e-08</v>
+        <v>3.184794505878268e-08</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>3.261792431348569e-08</v>
+        <v>3.273834308755599e-08</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>3.310991539745531e-08</v>
+        <v>3.325145412182958e-08</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>3.322942507248945e-08</v>
+        <v>3.339599320002449e-08</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>3.300196955445392e-08</v>
+        <v>3.318920453063021e-08</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>3.245306505921448e-08</v>
+        <v>3.264833232213622e-08</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>3.160823140402419e-08</v>
+        <v>3.179062515783341e-08</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>3.051767591587979e-08</v>
+        <v>3.066332088482575e-08</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>2.931524093837572e-08</v>
+        <v>2.941525336386143e-08</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>2.815246243076962e-08</v>
+        <v>2.821674985512166e-08</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>2.717934803260654e-08</v>
+        <v>2.723639796239036e-08</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>2.644334755595818e-08</v>
+        <v>2.652604572298287e-08</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>2.582636660799879e-08</v>
+        <v>2.594910544788148e-08</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>2.519527266462033e-08</v>
+        <v>2.535187183774421e-08</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>2.441954406153345e-08</v>
+        <v>2.45839569794123e-08</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>2.3432424854512e-08</v>
+        <v>2.357599436010485e-08</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>2.223306021268667e-08</v>
+        <v>2.234235212079132e-08</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>2.082363363414285e-08</v>
+        <v>2.090125877793245e-08</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>1.921596532096186e-08</v>
+        <v>1.927699716529889e-08</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>1.745707592735556e-08</v>
+        <v>1.75159650126609e-08</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>1.560202110795663e-08</v>
+        <v>1.566960808718339e-08</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>1.370585651739774e-08</v>
+        <v>1.378937215603126e-08</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.182363781031157e-08</v>
+        <v>1.192670298636945e-08</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.001042064133082e-08</v>
+        <v>1.013304634536286e-08</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>8.321260665088171e-09</v>
+        <v>8.459848000176397e-09</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>6.811213536216297e-09</v>
+        <v>6.95855371797499e-09</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>5.535334909348989e-09</v>
+        <v>5.68060926592466e-09</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>4.547903924137041e-09</v>
+        <v>4.676775304822608e-09</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>3.849040048625505e-09</v>
+        <v>3.950028310057501e-09</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>3.350247224328642e-09</v>
+        <v>3.425160738828602e-09</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>2.95543866883745e-09</v>
+        <v>3.020163589104729e-09</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>2.607619494927928e-09</v>
+        <v>2.680780290448774e-09</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>2.312046650199459e-09</v>
+        <v>2.396948594020366e-09</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>2.07803146432751e-09</v>
+        <v>2.162815379487854e-09</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>1.903821948464634e-09</v>
+        <v>1.974492943431636e-09</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>1.78271451779749e-09</v>
+        <v>1.82897324168017e-09</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>1.707982380892543e-09</v>
+        <v>1.723252352756544e-09</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>1.672898746316255e-09</v>
+        <v>1.654326355183846e-09</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>1.67073682263509e-09</v>
+        <v>1.619191327485161e-09</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>1.694773835811175e-09</v>
+        <v>1.614844005460039e-09</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>1.73964890893635e-09</v>
+        <v>1.638503941629422e-09</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>1.803339620898312e-09</v>
+        <v>1.687936885256058e-09</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>1.884325725042617e-09</v>
+        <v>1.760990745160734e-09</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>1.981086974714826e-09</v>
+        <v>1.855513430164236e-09</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>2.092103123260493e-09</v>
+        <v>1.969352849087348e-09</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>2.215853924025179e-09</v>
+        <v>2.100356910750856e-09</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>2.35081913035444e-09</v>
+        <v>2.246373523975545e-09</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.495478495593834e-09</v>
+        <v>2.405250597582202e-09</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.64831177308892e-09</v>
+        <v>2.574836040391611e-09</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.807798716185252e-09</v>
+        <v>2.752977761224557e-09</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.972419078228393e-09</v>
+        <v>2.937523668901826e-09</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>3.140652612563897e-09</v>
+        <v>3.126321672244204e-09</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>3.310979072537324e-09</v>
+        <v>3.317219680072477e-09</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>3.48187821149423e-09</v>
+        <v>3.508065601207427e-09</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>3.651829782780175e-09</v>
+        <v>3.696707344469844e-09</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>3.819313539740713e-09</v>
+        <v>3.88099281868051e-09</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>3.982809235721406e-09</v>
+        <v>4.058769932660212e-09</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>4.140796624067809e-09</v>
+        <v>4.227886595229736e-09</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>4.291755458125482e-09</v>
+        <v>4.386190715209866e-09</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>4.434184993275388e-09</v>
+        <v>4.531584241477537e-09</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>4.566950057775179e-09</v>
+        <v>4.662982123777063e-09</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>4.68924015265716e-09</v>
+        <v>4.780198978713482e-09</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>4.800256064853751e-09</v>
+        <v>4.88308069607247e-09</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>4.899198581297291e-09</v>
+        <v>4.971473165639635e-09</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>4.985268488920466e-09</v>
+        <v>5.045222277200889e-09</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>5.057666574655368e-09</v>
+        <v>5.104173920541625e-09</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>5.115593625434705e-09</v>
+        <v>5.148173985447757e-09</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>5.158250428190671e-09</v>
+        <v>5.17706836170479e-09</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>5.184837769855837e-09</v>
+        <v>5.190702939098512e-09</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>5.194556437362578e-09</v>
+        <v>5.188923607414568e-09</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>5.186607217643318e-09</v>
+        <v>5.17157625643864e-09</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>5.160190897630479e-09</v>
+        <v>5.138506775956406e-09</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>5.114508264256484e-09</v>
+        <v>5.089561055753546e-09</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>5.048760104453757e-09</v>
+        <v>5.024584985615742e-09</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>4.962147205154722e-09</v>
+        <v>4.943424455328676e-09</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>4.853870353291798e-09</v>
+        <v>4.845925354678022e-09</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>4.723130335797414e-09</v>
+        <v>4.731933573449465e-09</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>4.56912793960399e-09</v>
+        <v>4.601295001428686e-09</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>4.391063951643948e-09</v>
+        <v>4.453855528401362e-09</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>4.190401555426195e-09</v>
+        <v>4.290658954727708e-09</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>3.997197948965667e-09</v>
+        <v>4.127889252345814e-09</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.861109037575554e-09</v>
+        <v>3.992107662574307e-09</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.832173203751649e-09</v>
+        <v>3.910077943596595e-09</v>
       </c>
     </row>
   </sheetData>
